--- a/data extraction /extraction /raw data /wang2015/wang2015.xlsx
+++ b/data extraction /extraction /raw data /wang2015/wang2015.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0656CCF0-0578-6C41-9547-979649DFF3E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCC2DB09-DA96-094E-AA83-1685219D3DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2400" windowWidth="26840" windowHeight="13800" activeTab="1" xr2:uid="{B8B184CB-1444-A640-84A4-78F915E49951}"/>
+    <workbookView xWindow="1960" yWindow="2240" windowWidth="26840" windowHeight="13800" activeTab="1" xr2:uid="{B8B184CB-1444-A640-84A4-78F915E49951}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="cleaned" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -608,7 +608,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
